--- a/temp/jurnal_example.xlsx
+++ b/temp/jurnal_example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB714B4-174D-4081-82C3-E8E558459957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78965241-9B88-4888-ACD5-10FA81EC6464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,10 +444,10 @@
     <col min="6" max="6" width="29.5546875" customWidth="1"/>
     <col min="7" max="7" width="29.6640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="27.88671875" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
     <col min="10" max="10" width="34.6640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="35.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="23.77734375" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="19.44140625" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" customWidth="1"/>

--- a/temp/jurnal_example.xlsx
+++ b/temp/jurnal_example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78965241-9B88-4888-ACD5-10FA81EC6464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F096F776-9068-4328-9274-8B14C44526E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>№ КПП</t>
   </si>
@@ -28,30 +28,18 @@
     <t>время</t>
   </si>
   <si>
-    <t>марка автомобиля</t>
-  </si>
-  <si>
-    <t>№ автомобиля</t>
-  </si>
-  <si>
     <t>номер ТТН</t>
   </si>
   <si>
     <t>дата</t>
   </si>
   <si>
-    <t xml:space="preserve">организация </t>
-  </si>
-  <si>
     <t>заезд</t>
   </si>
   <si>
     <t>выезд</t>
   </si>
   <si>
-    <t>наименование груза</t>
-  </si>
-  <si>
     <t>Номер пропуска ТС</t>
   </si>
   <si>
@@ -59,9 +47,6 @@
   </si>
   <si>
     <t>Номер пропуска на пассажиров</t>
-  </si>
-  <si>
-    <t>Комментарии (№ТТН, перевозимый груз и т.д.)</t>
   </si>
   <si>
     <t>ошибки</t>
@@ -100,11 +85,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -123,20 +105,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A1:M28" totalsRowShown="0">
-  <autoFilter ref="A1:M28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A1:H28" totalsRowShown="0">
+  <autoFilter ref="A1:H28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№ КПП"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="дата"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="время"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="марка автомобиля"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="№ автомобиля"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Номер пропуска ТС"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="организация "/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Номер пропуска на водителя"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Номер пропуска на пассажиров"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="наименование груза"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Комментарии (№ТТН, перевозимый груз и т.д.)"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="номер ТТН"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="заезд"/>
   </tableColumns>
@@ -145,8 +122,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица4" displayName="Таблица4" ref="N1:N28" totalsRowShown="0">
-  <autoFilter ref="N1:N28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица4" displayName="Таблица4" ref="I1:I28" totalsRowShown="0">
+  <autoFilter ref="I1:I28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="выезд"/>
   </tableColumns>
@@ -155,8 +132,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F48DF393-F856-4719-B8B7-959E92E6431D}" name="Таблица42" displayName="Таблица42" ref="O1:O28" totalsRowShown="0">
-  <autoFilter ref="O1:O28" xr:uid="{7EEF1EE3-1CB2-451F-8141-C6DCDD6295EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F48DF393-F856-4719-B8B7-959E92E6431D}" name="Таблица42" displayName="Таблица42" ref="J1:J28" totalsRowShown="0">
+  <autoFilter ref="J1:J28" xr:uid="{7EEF1EE3-1CB2-451F-8141-C6DCDD6295EF}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{61824698-D78F-4790-BD6F-E791ACDCCAD9}" name="ошибки"/>
   </tableColumns>
@@ -428,10 +405,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,66 +416,46 @@
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="35.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="23.77734375" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/temp/jurnal_example.xlsx
+++ b/temp/jurnal_example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F096F776-9068-4328-9274-8B14C44526E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF119E69-25A5-41B6-B49F-89CD31B4CC36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>№ КПП</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>ошибки</t>
+  </si>
+  <si>
+    <t>устройство</t>
   </si>
 </sst>
 </file>
@@ -105,10 +108,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A1:H28" totalsRowShown="0">
-  <autoFilter ref="A1:H28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A1:I28" totalsRowShown="0">
+  <autoFilter ref="A1:I28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№ КПП"/>
+    <tableColumn id="2" xr3:uid="{3430D4BF-96A3-4EF0-A280-DC9F0EA3AF7F}" name="устройство"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="дата"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="время"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Номер пропуска ТС"/>
@@ -122,8 +126,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица4" displayName="Таблица4" ref="I1:I28" totalsRowShown="0">
-  <autoFilter ref="I1:I28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица4" displayName="Таблица4" ref="J1:J28" totalsRowShown="0">
+  <autoFilter ref="J1:J28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="выезд"/>
   </tableColumns>
@@ -132,8 +136,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F48DF393-F856-4719-B8B7-959E92E6431D}" name="Таблица42" displayName="Таблица42" ref="J1:J28" totalsRowShown="0">
-  <autoFilter ref="J1:J28" xr:uid="{7EEF1EE3-1CB2-451F-8141-C6DCDD6295EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F48DF393-F856-4719-B8B7-959E92E6431D}" name="Таблица42" displayName="Таблица42" ref="K1:K28" totalsRowShown="0">
+  <autoFilter ref="K1:K28" xr:uid="{7EEF1EE3-1CB2-451F-8141-C6DCDD6295EF}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{61824698-D78F-4790-BD6F-E791ACDCCAD9}" name="ошибки"/>
   </tableColumns>
@@ -405,56 +409,60 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.77734375" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="21.77734375" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/temp/jurnal_example.xlsx
+++ b/temp/jurnal_example.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF119E69-25A5-41B6-B49F-89CD31B4CC36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,44 +104,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A1:I28" totalsRowShown="0">
-  <autoFilter ref="A1:I28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№ КПП"/>
-    <tableColumn id="2" xr3:uid="{3430D4BF-96A3-4EF0-A280-DC9F0EA3AF7F}" name="устройство"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="дата"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="время"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Номер пропуска ТС"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Номер пропуска на водителя"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Номер пропуска на пассажиров"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="номер ТТН"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="заезд"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица4" displayName="Таблица4" ref="J1:J28" totalsRowShown="0">
-  <autoFilter ref="J1:J28" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="выезд"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F48DF393-F856-4719-B8B7-959E92E6431D}" name="Таблица42" displayName="Таблица42" ref="K1:K28" totalsRowShown="0">
-  <autoFilter ref="K1:K28" xr:uid="{7EEF1EE3-1CB2-451F-8141-C6DCDD6295EF}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{61824698-D78F-4790-BD6F-E791ACDCCAD9}" name="ошибки"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,31 +368,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A2" sqref="A2:K23206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,10 +429,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>